--- a/kamus perbaikan kata.xlsx
+++ b/kamus perbaikan kata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="2904">
   <si>
     <t>TIDAK BAKU</t>
   </si>
@@ -8736,6 +8736,12 @@
   </si>
   <si>
     <t>amazing</t>
+  </si>
+  <si>
+    <t>sudh</t>
+  </si>
+  <si>
+    <t>bgus</t>
   </si>
 </sst>
 </file>
@@ -9030,8 +9036,8 @@
   </sheetPr>
   <dimension ref="A1:B2005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1837" workbookViewId="0">
-      <selection activeCell="A1835" sqref="A1835"/>
+    <sheetView tabSelected="1" topLeftCell="A1847" workbookViewId="0">
+      <selection activeCell="B1865" sqref="B1865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -23881,12 +23887,20 @@
       </c>
     </row>
     <row r="1856" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1856" s="5"/>
-      <c r="B1856" s="5"/>
+      <c r="A1856" s="5" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1856" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="1857" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1857" s="5"/>
-      <c r="B1857" s="5"/>
+      <c r="A1857" s="5" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B1857" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="1858" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1858" s="5"/>
